--- a/2018-05-MOLP_Price.xlsx
+++ b/2018-05-MOLP_Price.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liyang/git/linebot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C142416-391F-8A45-823C-48F9421F6801}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E994E74-1848-6C44-9AAD-E8459298B622}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4040" yWindow="520" windowWidth="24060" windowHeight="15240" tabRatio="758" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,10 +19,10 @@
     <sheet name="AE MOLP" sheetId="21" r:id="rId4"/>
     <sheet name="Cloud-open" sheetId="25" r:id="rId5"/>
     <sheet name="Cloud-CSP" sheetId="26" r:id="rId6"/>
-    <sheet name="工作表1" sheetId="28" r:id="rId7"/>
-    <sheet name="O365 方案選項" sheetId="27" r:id="rId8"/>
+    <sheet name="O365 方案選項" sheetId="27" r:id="rId7"/>
   </sheets>
   <externalReferences>
+    <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
     <externalReference r:id="rId10"/>
     <externalReference r:id="rId11"/>
@@ -52,7 +52,6 @@
     <externalReference r:id="rId35"/>
     <externalReference r:id="rId36"/>
     <externalReference r:id="rId37"/>
-    <externalReference r:id="rId38"/>
   </externalReferences>
   <definedNames>
     <definedName name="_17w21_">[1]!_xlbgnm.w21</definedName>
@@ -366,7 +365,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6554" uniqueCount="4319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6553" uniqueCount="4318">
   <si>
     <t>Microsoft</t>
   </si>
@@ -18173,10 +18172,6 @@
     <t>NTT成本</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
-  <si>
-    <t>test</t>
-    <phoneticPr fontId="96" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
@@ -18190,7 +18185,7 @@
     <numFmt numFmtId="179" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="180" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="97">
+  <fonts count="96">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -18865,12 +18860,6 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="細明體"/>
-      <family val="3"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Heiti TC"/>
       <family val="3"/>
       <charset val="136"/>
     </font>
@@ -19805,6 +19794,96 @@
     <xf numFmtId="0" fontId="94" fillId="8" borderId="0" xfId="45" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="3" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="4" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="5" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="3" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="4" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="5" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="3" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="4" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="5" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="2" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="3" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="5" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="2" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="59" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="3" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="4" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="5" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="47" fillId="0" borderId="3" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="47" fillId="0" borderId="4" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="47" fillId="0" borderId="5" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="59" fillId="0" borderId="3" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="59" fillId="0" borderId="4" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="59" fillId="0" borderId="5" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="51" fillId="0" borderId="3" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="51" fillId="0" borderId="5" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="3" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -19827,12 +19906,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="5" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -19865,98 +19938,11 @@
     <xf numFmtId="0" fontId="53" fillId="0" borderId="5" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="59" fillId="0" borderId="3" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="59" fillId="0" borderId="4" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="3" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="4" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="5" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="2" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="51" fillId="0" borderId="3" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="51" fillId="0" borderId="5" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="59" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="2" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="3" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="4" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="5" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="47" fillId="0" borderId="3" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="47" fillId="0" borderId="4" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="47" fillId="0" borderId="5" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="59" fillId="0" borderId="5" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="3" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="4" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="5" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="3" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="4" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="5" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="3" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="5" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="9" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="9" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="45" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -19970,7 +19956,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="9" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="9" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -28600,10 +28589,10 @@
       </c>
     </row>
     <row r="3" spans="2:10" s="21" customFormat="1" ht="30" customHeight="1">
-      <c r="B3" s="219" t="s">
+      <c r="B3" s="203" t="s">
         <v>3676</v>
       </c>
-      <c r="C3" s="222" t="s">
+      <c r="C3" s="224" t="s">
         <v>3677</v>
       </c>
       <c r="D3" s="16" t="s">
@@ -28627,8 +28616,8 @@
       <c r="J3" s="20"/>
     </row>
     <row r="4" spans="2:10" s="21" customFormat="1" ht="30" customHeight="1">
-      <c r="B4" s="220"/>
-      <c r="C4" s="223"/>
+      <c r="B4" s="204"/>
+      <c r="C4" s="206"/>
       <c r="D4" s="22" t="s">
         <v>3681</v>
       </c>
@@ -28652,8 +28641,8 @@
       </c>
     </row>
     <row r="5" spans="2:10" s="21" customFormat="1" ht="30" customHeight="1">
-      <c r="B5" s="220"/>
-      <c r="C5" s="222" t="s">
+      <c r="B5" s="204"/>
+      <c r="C5" s="224" t="s">
         <v>3685</v>
       </c>
       <c r="D5" s="22" t="s">
@@ -28679,8 +28668,8 @@
       </c>
     </row>
     <row r="6" spans="2:10" s="21" customFormat="1" ht="30" customHeight="1">
-      <c r="B6" s="221"/>
-      <c r="C6" s="223"/>
+      <c r="B6" s="205"/>
+      <c r="C6" s="206"/>
       <c r="D6" s="16" t="s">
         <v>3690</v>
       </c>
@@ -28702,7 +28691,7 @@
       <c r="J6" s="20"/>
     </row>
     <row r="7" spans="2:10" s="21" customFormat="1" ht="30" customHeight="1">
-      <c r="B7" s="219" t="s">
+      <c r="B7" s="203" t="s">
         <v>3693</v>
       </c>
       <c r="C7" s="27" t="s">
@@ -28723,7 +28712,7 @@
       <c r="H7" s="18">
         <v>11455</v>
       </c>
-      <c r="I7" s="224" t="s">
+      <c r="I7" s="225" t="s">
         <v>3697</v>
       </c>
       <c r="J7" s="28" t="s">
@@ -28731,7 +28720,7 @@
       </c>
     </row>
     <row r="8" spans="2:10" s="21" customFormat="1" ht="30" customHeight="1">
-      <c r="B8" s="221"/>
+      <c r="B8" s="205"/>
       <c r="C8" s="27" t="s">
         <v>3699</v>
       </c>
@@ -28750,14 +28739,14 @@
       <c r="H8" s="18">
         <v>15635</v>
       </c>
-      <c r="I8" s="225"/>
+      <c r="I8" s="226"/>
       <c r="J8" s="20"/>
     </row>
     <row r="9" spans="2:10" s="21" customFormat="1" ht="30" customHeight="1">
-      <c r="B9" s="197" t="s">
+      <c r="B9" s="227" t="s">
         <v>3702</v>
       </c>
-      <c r="C9" s="199" t="s">
+      <c r="C9" s="229" t="s">
         <v>3703</v>
       </c>
       <c r="D9" s="16" t="s">
@@ -28781,8 +28770,8 @@
       <c r="J9" s="30"/>
     </row>
     <row r="10" spans="2:10" s="21" customFormat="1" ht="30" customHeight="1">
-      <c r="B10" s="198"/>
-      <c r="C10" s="200"/>
+      <c r="B10" s="228"/>
+      <c r="C10" s="230"/>
       <c r="D10" s="16" t="s">
         <v>3708</v>
       </c>
@@ -28806,8 +28795,8 @@
       </c>
     </row>
     <row r="11" spans="2:10" s="21" customFormat="1" ht="30" customHeight="1">
-      <c r="B11" s="198"/>
-      <c r="C11" s="201"/>
+      <c r="B11" s="228"/>
+      <c r="C11" s="231"/>
       <c r="D11" s="16" t="s">
         <v>3712</v>
       </c>
@@ -28828,8 +28817,8 @@
       </c>
     </row>
     <row r="12" spans="2:10" s="33" customFormat="1" ht="30" customHeight="1">
-      <c r="B12" s="198"/>
-      <c r="C12" s="202" t="s">
+      <c r="B12" s="228"/>
+      <c r="C12" s="232" t="s">
         <v>3715</v>
       </c>
       <c r="D12" s="31" t="s">
@@ -28855,8 +28844,8 @@
       </c>
     </row>
     <row r="13" spans="2:10" s="33" customFormat="1" ht="30" customHeight="1">
-      <c r="B13" s="198"/>
-      <c r="C13" s="203"/>
+      <c r="B13" s="228"/>
+      <c r="C13" s="233"/>
       <c r="D13" s="31" t="s">
         <v>3721</v>
       </c>
@@ -28880,8 +28869,8 @@
       </c>
     </row>
     <row r="14" spans="2:10" s="33" customFormat="1" ht="30" customHeight="1">
-      <c r="B14" s="198"/>
-      <c r="C14" s="204"/>
+      <c r="B14" s="228"/>
+      <c r="C14" s="234"/>
       <c r="D14" s="31" t="s">
         <v>3725</v>
       </c>
@@ -28902,8 +28891,8 @@
       </c>
     </row>
     <row r="15" spans="2:10" ht="30" customHeight="1">
-      <c r="B15" s="198"/>
-      <c r="C15" s="205" t="s">
+      <c r="B15" s="228"/>
+      <c r="C15" s="211" t="s">
         <v>3727</v>
       </c>
       <c r="D15" s="35" t="s">
@@ -28921,14 +28910,14 @@
       <c r="H15" s="37">
         <v>900</v>
       </c>
-      <c r="I15" s="208" t="s">
+      <c r="I15" s="236" t="s">
         <v>3729</v>
       </c>
       <c r="J15" s="38"/>
     </row>
     <row r="16" spans="2:10" ht="30" customHeight="1">
-      <c r="B16" s="198"/>
-      <c r="C16" s="206"/>
+      <c r="B16" s="228"/>
+      <c r="C16" s="212"/>
       <c r="D16" s="35" t="s">
         <v>3730</v>
       </c>
@@ -28944,12 +28933,12 @@
       <c r="H16" s="37">
         <v>1169.4736842105265</v>
       </c>
-      <c r="I16" s="209"/>
+      <c r="I16" s="237"/>
       <c r="J16" s="24"/>
     </row>
     <row r="17" spans="2:10" ht="30" customHeight="1">
-      <c r="B17" s="198"/>
-      <c r="C17" s="206"/>
+      <c r="B17" s="228"/>
+      <c r="C17" s="212"/>
       <c r="D17" s="35" t="s">
         <v>3731</v>
       </c>
@@ -28965,12 +28954,12 @@
       <c r="H17" s="37">
         <v>1351.578947368421</v>
       </c>
-      <c r="I17" s="209"/>
+      <c r="I17" s="237"/>
       <c r="J17" s="30"/>
     </row>
     <row r="18" spans="2:10" ht="30" customHeight="1">
-      <c r="B18" s="198"/>
-      <c r="C18" s="206"/>
+      <c r="B18" s="228"/>
+      <c r="C18" s="212"/>
       <c r="D18" s="35" t="s">
         <v>3732</v>
       </c>
@@ -28986,14 +28975,14 @@
       <c r="H18" s="37">
         <v>1751.578947368421</v>
       </c>
-      <c r="I18" s="209"/>
+      <c r="I18" s="237"/>
       <c r="J18" s="26" t="s">
         <v>3733</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="30" customHeight="1">
-      <c r="B19" s="198"/>
-      <c r="C19" s="206"/>
+      <c r="B19" s="228"/>
+      <c r="C19" s="212"/>
       <c r="D19" s="35" t="s">
         <v>3734</v>
       </c>
@@ -29009,11 +28998,11 @@
       <c r="H19" s="37">
         <v>452.63157894736844</v>
       </c>
-      <c r="I19" s="209"/>
+      <c r="I19" s="237"/>
     </row>
     <row r="20" spans="2:10" ht="30" customHeight="1">
-      <c r="B20" s="198"/>
-      <c r="C20" s="207"/>
+      <c r="B20" s="228"/>
+      <c r="C20" s="235"/>
       <c r="D20" s="35" t="s">
         <v>3735</v>
       </c>
@@ -29029,11 +29018,11 @@
       <c r="H20" s="37">
         <v>583.15789473684208</v>
       </c>
-      <c r="I20" s="210"/>
+      <c r="I20" s="238"/>
     </row>
     <row r="21" spans="2:10" ht="30" customHeight="1">
-      <c r="B21" s="198"/>
-      <c r="C21" s="205" t="s">
+      <c r="B21" s="228"/>
+      <c r="C21" s="211" t="s">
         <v>3736</v>
       </c>
       <c r="D21" s="35" t="s">
@@ -29051,14 +29040,14 @@
       <c r="H21" s="37">
         <v>62142.1052631579</v>
       </c>
-      <c r="I21" s="211" t="s">
+      <c r="I21" s="239" t="s">
         <v>3740</v>
       </c>
       <c r="J21" s="39"/>
     </row>
     <row r="22" spans="2:10" ht="30" customHeight="1">
-      <c r="B22" s="198"/>
-      <c r="C22" s="206"/>
+      <c r="B22" s="228"/>
+      <c r="C22" s="212"/>
       <c r="D22" s="35" t="s">
         <v>3741</v>
       </c>
@@ -29074,12 +29063,12 @@
       <c r="H22" s="37">
         <v>93210.526315789481</v>
       </c>
-      <c r="I22" s="212"/>
+      <c r="I22" s="240"/>
       <c r="J22" s="40"/>
     </row>
     <row r="23" spans="2:10" ht="30" customHeight="1">
-      <c r="B23" s="198"/>
-      <c r="C23" s="207"/>
+      <c r="B23" s="228"/>
+      <c r="C23" s="235"/>
       <c r="D23" s="35" t="s">
         <v>3743</v>
       </c>
@@ -29095,11 +29084,11 @@
       <c r="H23" s="37">
         <v>31068.42105263158</v>
       </c>
-      <c r="I23" s="213"/>
+      <c r="I23" s="241"/>
     </row>
     <row r="24" spans="2:10" ht="30" customHeight="1">
-      <c r="B24" s="198"/>
-      <c r="C24" s="214" t="s">
+      <c r="B24" s="228"/>
+      <c r="C24" s="242" t="s">
         <v>3744</v>
       </c>
       <c r="D24" s="35" t="s">
@@ -29117,13 +29106,13 @@
       <c r="H24" s="37">
         <v>3120</v>
       </c>
-      <c r="I24" s="217" t="s">
+      <c r="I24" s="221" t="s">
         <v>3746</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="30" customHeight="1">
-      <c r="B25" s="198"/>
-      <c r="C25" s="215"/>
+      <c r="B25" s="228"/>
+      <c r="C25" s="243"/>
       <c r="D25" s="35" t="s">
         <v>3747</v>
       </c>
@@ -29139,11 +29128,11 @@
       <c r="H25" s="37">
         <v>4054.7368421052633</v>
       </c>
-      <c r="I25" s="218"/>
+      <c r="I25" s="222"/>
     </row>
     <row r="26" spans="2:10" ht="30" customHeight="1">
-      <c r="B26" s="198"/>
-      <c r="C26" s="215"/>
+      <c r="B26" s="228"/>
+      <c r="C26" s="243"/>
       <c r="D26" s="35" t="s">
         <v>3748</v>
       </c>
@@ -29159,11 +29148,11 @@
       <c r="H26" s="37">
         <v>4675.7894736842109</v>
       </c>
-      <c r="I26" s="218"/>
+      <c r="I26" s="222"/>
     </row>
     <row r="27" spans="2:10" ht="30" customHeight="1">
-      <c r="B27" s="198"/>
-      <c r="C27" s="215"/>
+      <c r="B27" s="228"/>
+      <c r="C27" s="243"/>
       <c r="D27" s="35" t="s">
         <v>3749</v>
       </c>
@@ -29179,11 +29168,11 @@
       <c r="H27" s="37">
         <v>6080</v>
       </c>
-      <c r="I27" s="218"/>
+      <c r="I27" s="222"/>
     </row>
     <row r="28" spans="2:10" ht="30" customHeight="1">
-      <c r="B28" s="198"/>
-      <c r="C28" s="215"/>
+      <c r="B28" s="228"/>
+      <c r="C28" s="243"/>
       <c r="D28" s="35" t="s">
         <v>3750</v>
       </c>
@@ -29199,11 +29188,11 @@
       <c r="H28" s="37">
         <v>1555.7894736842106</v>
       </c>
-      <c r="I28" s="218"/>
+      <c r="I28" s="222"/>
     </row>
     <row r="29" spans="2:10" ht="30" customHeight="1">
-      <c r="B29" s="198"/>
-      <c r="C29" s="215"/>
+      <c r="B29" s="228"/>
+      <c r="C29" s="243"/>
       <c r="D29" s="35" t="s">
         <v>3751</v>
       </c>
@@ -29219,11 +29208,11 @@
       <c r="H29" s="37">
         <v>2025.2631578947369</v>
       </c>
-      <c r="I29" s="218"/>
+      <c r="I29" s="222"/>
     </row>
     <row r="30" spans="2:10" ht="30" customHeight="1">
-      <c r="B30" s="198"/>
-      <c r="C30" s="215"/>
+      <c r="B30" s="228"/>
+      <c r="C30" s="243"/>
       <c r="D30" s="35" t="s">
         <v>3752</v>
       </c>
@@ -29240,11 +29229,11 @@
         <v>313317.89473684214</v>
       </c>
       <c r="I30" s="41"/>
-      <c r="J30" s="226"/>
+      <c r="J30" s="210"/>
     </row>
     <row r="31" spans="2:10" ht="30" customHeight="1">
-      <c r="B31" s="198"/>
-      <c r="C31" s="215"/>
+      <c r="B31" s="228"/>
+      <c r="C31" s="243"/>
       <c r="D31" s="35" t="s">
         <v>3753</v>
       </c>
@@ -29261,11 +29250,11 @@
         <v>469971.57894736843</v>
       </c>
       <c r="I31" s="41"/>
-      <c r="J31" s="226"/>
+      <c r="J31" s="210"/>
     </row>
     <row r="32" spans="2:10" ht="30" customHeight="1">
-      <c r="B32" s="198"/>
-      <c r="C32" s="216"/>
+      <c r="B32" s="228"/>
+      <c r="C32" s="244"/>
       <c r="D32" s="35" t="s">
         <v>3754</v>
       </c>
@@ -29282,13 +29271,13 @@
         <v>156654.73684210528</v>
       </c>
       <c r="I32" s="42"/>
-      <c r="J32" s="226"/>
+      <c r="J32" s="210"/>
     </row>
     <row r="33" spans="2:10" ht="30" customHeight="1">
-      <c r="B33" s="234" t="s">
+      <c r="B33" s="219" t="s">
         <v>3755</v>
       </c>
-      <c r="C33" s="205" t="s">
+      <c r="C33" s="211" t="s">
         <v>3756</v>
       </c>
       <c r="D33" s="43" t="s">
@@ -29306,13 +29295,13 @@
       <c r="H33" s="37">
         <v>27614.736842105263</v>
       </c>
-      <c r="I33" s="217" t="s">
+      <c r="I33" s="221" t="s">
         <v>3758</v>
       </c>
     </row>
     <row r="34" spans="2:10" ht="30" customHeight="1">
-      <c r="B34" s="235"/>
-      <c r="C34" s="206"/>
+      <c r="B34" s="220"/>
+      <c r="C34" s="212"/>
       <c r="D34" s="43" t="s">
         <v>3759</v>
       </c>
@@ -29328,11 +29317,11 @@
       <c r="H34" s="37">
         <v>41423.157894736847</v>
       </c>
-      <c r="I34" s="218"/>
+      <c r="I34" s="222"/>
     </row>
     <row r="35" spans="2:10" ht="30" customHeight="1">
-      <c r="B35" s="235"/>
-      <c r="C35" s="206"/>
+      <c r="B35" s="220"/>
+      <c r="C35" s="212"/>
       <c r="D35" s="43" t="s">
         <v>3760</v>
       </c>
@@ -29348,11 +29337,11 @@
       <c r="H35" s="37">
         <v>13809.473684210527</v>
       </c>
-      <c r="I35" s="218"/>
+      <c r="I35" s="222"/>
     </row>
     <row r="36" spans="2:10" ht="30" customHeight="1">
-      <c r="B36" s="235"/>
-      <c r="C36" s="206"/>
+      <c r="B36" s="220"/>
+      <c r="C36" s="212"/>
       <c r="D36" s="44" t="s">
         <v>3761</v>
       </c>
@@ -29368,11 +29357,11 @@
       <c r="H36" s="37">
         <v>6427.3684210526317</v>
       </c>
-      <c r="I36" s="218"/>
+      <c r="I36" s="222"/>
     </row>
     <row r="37" spans="2:10" ht="30" customHeight="1">
-      <c r="B37" s="235"/>
-      <c r="C37" s="206"/>
+      <c r="B37" s="220"/>
+      <c r="C37" s="212"/>
       <c r="D37" s="44" t="s">
         <v>3762</v>
       </c>
@@ -29388,11 +29377,11 @@
       <c r="H37" s="37">
         <v>6427.3684210526317</v>
       </c>
-      <c r="I37" s="218"/>
+      <c r="I37" s="222"/>
     </row>
     <row r="38" spans="2:10" ht="30" customHeight="1">
-      <c r="B38" s="235"/>
-      <c r="C38" s="206"/>
+      <c r="B38" s="220"/>
+      <c r="C38" s="212"/>
       <c r="D38" s="44" t="s">
         <v>3763</v>
       </c>
@@ -29408,11 +29397,11 @@
       <c r="H38" s="37">
         <v>9642.105263157895</v>
       </c>
-      <c r="I38" s="218"/>
+      <c r="I38" s="222"/>
     </row>
     <row r="39" spans="2:10" ht="30" customHeight="1">
-      <c r="B39" s="235"/>
-      <c r="C39" s="206"/>
+      <c r="B39" s="220"/>
+      <c r="C39" s="212"/>
       <c r="D39" s="44" t="s">
         <v>3764</v>
       </c>
@@ -29428,11 +29417,11 @@
       <c r="H39" s="37">
         <v>9642.105263157895</v>
       </c>
-      <c r="I39" s="218"/>
+      <c r="I39" s="222"/>
     </row>
     <row r="40" spans="2:10" ht="30" customHeight="1">
-      <c r="B40" s="235"/>
-      <c r="C40" s="206"/>
+      <c r="B40" s="220"/>
+      <c r="C40" s="212"/>
       <c r="D40" s="44" t="s">
         <v>3765</v>
       </c>
@@ -29448,11 +29437,11 @@
       <c r="H40" s="37">
         <v>3215.7894736842109</v>
       </c>
-      <c r="I40" s="218"/>
+      <c r="I40" s="222"/>
     </row>
     <row r="41" spans="2:10" ht="30" customHeight="1">
-      <c r="B41" s="235"/>
-      <c r="C41" s="206"/>
+      <c r="B41" s="220"/>
+      <c r="C41" s="212"/>
       <c r="D41" s="44" t="s">
         <v>3766</v>
       </c>
@@ -29468,11 +29457,11 @@
       <c r="H41" s="37">
         <v>3215.7894736842109</v>
       </c>
-      <c r="I41" s="236"/>
+      <c r="I41" s="223"/>
     </row>
     <row r="42" spans="2:10" ht="30" customHeight="1">
-      <c r="B42" s="235"/>
-      <c r="C42" s="205" t="s">
+      <c r="B42" s="220"/>
+      <c r="C42" s="211" t="s">
         <v>3767</v>
       </c>
       <c r="D42" s="43" t="s">
@@ -29490,13 +29479,13 @@
       <c r="H42" s="37">
         <v>110347.36842105264</v>
       </c>
-      <c r="I42" s="217" t="s">
+      <c r="I42" s="221" t="s">
         <v>3770</v>
       </c>
     </row>
     <row r="43" spans="2:10" ht="30" customHeight="1">
-      <c r="B43" s="235"/>
-      <c r="C43" s="206"/>
+      <c r="B43" s="220"/>
+      <c r="C43" s="212"/>
       <c r="D43" s="43" t="s">
         <v>3771</v>
       </c>
@@ -29512,11 +29501,11 @@
       <c r="H43" s="37">
         <v>165523.15789473685</v>
       </c>
-      <c r="I43" s="218"/>
+      <c r="I43" s="222"/>
     </row>
     <row r="44" spans="2:10" ht="30" customHeight="1">
-      <c r="B44" s="235"/>
-      <c r="C44" s="206"/>
+      <c r="B44" s="220"/>
+      <c r="C44" s="212"/>
       <c r="D44" s="43" t="s">
         <v>3772</v>
       </c>
@@ -29532,11 +29521,11 @@
       <c r="H44" s="37">
         <v>55175.789473684214</v>
       </c>
-      <c r="I44" s="218"/>
+      <c r="I44" s="222"/>
     </row>
     <row r="45" spans="2:10" ht="30" customHeight="1">
-      <c r="B45" s="235"/>
-      <c r="C45" s="205" t="s">
+      <c r="B45" s="220"/>
+      <c r="C45" s="211" t="s">
         <v>3773</v>
       </c>
       <c r="D45" s="43" t="s">
@@ -29554,11 +29543,11 @@
       <c r="H45" s="37">
         <v>423126.31578947371</v>
       </c>
-      <c r="I45" s="218"/>
+      <c r="I45" s="222"/>
     </row>
     <row r="46" spans="2:10" ht="30" customHeight="1">
-      <c r="B46" s="235"/>
-      <c r="C46" s="206"/>
+      <c r="B46" s="220"/>
+      <c r="C46" s="212"/>
       <c r="D46" s="43" t="s">
         <v>3776</v>
       </c>
@@ -29574,11 +29563,11 @@
       <c r="H46" s="37">
         <v>634686.31578947371</v>
       </c>
-      <c r="I46" s="218"/>
+      <c r="I46" s="222"/>
     </row>
     <row r="47" spans="2:10" ht="30" customHeight="1">
-      <c r="B47" s="235"/>
-      <c r="C47" s="206"/>
+      <c r="B47" s="220"/>
+      <c r="C47" s="212"/>
       <c r="D47" s="43" t="s">
         <v>3777</v>
       </c>
@@ -29594,13 +29583,13 @@
       <c r="H47" s="37">
         <v>211561.05263157896</v>
       </c>
-      <c r="I47" s="218"/>
+      <c r="I47" s="222"/>
     </row>
     <row r="48" spans="2:10" ht="30" customHeight="1">
-      <c r="B48" s="227" t="s">
+      <c r="B48" s="209" t="s">
         <v>3778</v>
       </c>
-      <c r="C48" s="228" t="s">
+      <c r="C48" s="213" t="s">
         <v>3779</v>
       </c>
       <c r="D48" s="45" t="s">
@@ -29618,7 +29607,7 @@
       <c r="H48" s="37">
         <v>21778.947368421053</v>
       </c>
-      <c r="I48" s="231" t="s">
+      <c r="I48" s="216" t="s">
         <v>3782</v>
       </c>
       <c r="J48" s="48" t="s">
@@ -29626,8 +29615,8 @@
       </c>
     </row>
     <row r="49" spans="2:10" ht="30" customHeight="1">
-      <c r="B49" s="227"/>
-      <c r="C49" s="229"/>
+      <c r="B49" s="209"/>
+      <c r="C49" s="214"/>
       <c r="D49" s="45" t="s">
         <v>3784</v>
       </c>
@@ -29643,14 +29632,14 @@
       <c r="H49" s="37">
         <v>32668.42105263158</v>
       </c>
-      <c r="I49" s="232"/>
+      <c r="I49" s="217"/>
       <c r="J49" s="26" t="s">
         <v>3786</v>
       </c>
     </row>
     <row r="50" spans="2:10" ht="30" customHeight="1">
-      <c r="B50" s="227"/>
-      <c r="C50" s="230"/>
+      <c r="B50" s="209"/>
+      <c r="C50" s="215"/>
       <c r="D50" s="45" t="s">
         <v>3787</v>
       </c>
@@ -29666,11 +29655,11 @@
       <c r="H50" s="37">
         <v>10889.473684210527</v>
       </c>
-      <c r="I50" s="233"/>
+      <c r="I50" s="218"/>
     </row>
     <row r="51" spans="2:10" ht="30" customHeight="1">
-      <c r="B51" s="227"/>
-      <c r="C51" s="228" t="s">
+      <c r="B51" s="209"/>
+      <c r="C51" s="213" t="s">
         <v>3789</v>
       </c>
       <c r="D51" s="45" t="s">
@@ -29688,13 +29677,13 @@
       <c r="H51" s="37">
         <v>124669.47368421053</v>
       </c>
-      <c r="I51" s="231" t="s">
+      <c r="I51" s="216" t="s">
         <v>3791</v>
       </c>
     </row>
     <row r="52" spans="2:10" ht="30" customHeight="1">
-      <c r="B52" s="227"/>
-      <c r="C52" s="229"/>
+      <c r="B52" s="209"/>
+      <c r="C52" s="214"/>
       <c r="D52" s="45" t="s">
         <v>3792</v>
       </c>
@@ -29710,11 +29699,11 @@
       <c r="H52" s="37">
         <v>187006.31578947368</v>
       </c>
-      <c r="I52" s="232"/>
+      <c r="I52" s="217"/>
     </row>
     <row r="53" spans="2:10" ht="30" customHeight="1">
-      <c r="B53" s="227"/>
-      <c r="C53" s="230"/>
+      <c r="B53" s="209"/>
+      <c r="C53" s="215"/>
       <c r="D53" s="45" t="s">
         <v>3794</v>
       </c>
@@ -29730,11 +29719,11 @@
       <c r="H53" s="37">
         <v>62336.84210526316</v>
       </c>
-      <c r="I53" s="232"/>
+      <c r="I53" s="217"/>
     </row>
     <row r="54" spans="2:10" ht="30" customHeight="1">
-      <c r="B54" s="227"/>
-      <c r="C54" s="228" t="s">
+      <c r="B54" s="209"/>
+      <c r="C54" s="213" t="s">
         <v>3796</v>
       </c>
       <c r="D54" s="45" t="s">
@@ -29752,13 +29741,13 @@
       <c r="H54" s="37">
         <v>2077.8947368421054</v>
       </c>
-      <c r="I54" s="231" t="s">
+      <c r="I54" s="216" t="s">
         <v>3799</v>
       </c>
     </row>
     <row r="55" spans="2:10" ht="30" customHeight="1">
-      <c r="B55" s="227"/>
-      <c r="C55" s="229"/>
+      <c r="B55" s="209"/>
+      <c r="C55" s="214"/>
       <c r="D55" s="45" t="s">
         <v>3800</v>
       </c>
@@ -29774,14 +29763,14 @@
       <c r="H55" s="37">
         <v>2703.1578947368421</v>
       </c>
-      <c r="I55" s="232"/>
+      <c r="I55" s="217"/>
       <c r="J55" s="48" t="s">
         <v>3802</v>
       </c>
     </row>
     <row r="56" spans="2:10" ht="30" customHeight="1">
-      <c r="B56" s="227"/>
-      <c r="C56" s="229"/>
+      <c r="B56" s="209"/>
+      <c r="C56" s="214"/>
       <c r="D56" s="45" t="s">
         <v>3803</v>
       </c>
@@ -29797,14 +29786,14 @@
       <c r="H56" s="37">
         <v>3111.5789473684213</v>
       </c>
-      <c r="I56" s="232"/>
+      <c r="I56" s="217"/>
       <c r="J56" s="48" t="s">
         <v>3805</v>
       </c>
     </row>
     <row r="57" spans="2:10" ht="30" customHeight="1">
-      <c r="B57" s="227"/>
-      <c r="C57" s="229"/>
+      <c r="B57" s="209"/>
+      <c r="C57" s="214"/>
       <c r="D57" s="45" t="s">
         <v>3806</v>
       </c>
@@ -29820,14 +29809,14 @@
       <c r="H57" s="37">
         <v>4050.5263157894738</v>
       </c>
-      <c r="I57" s="232"/>
+      <c r="I57" s="217"/>
       <c r="J57" s="48" t="s">
         <v>3808</v>
       </c>
     </row>
     <row r="58" spans="2:10" ht="30" customHeight="1">
-      <c r="B58" s="227"/>
-      <c r="C58" s="229"/>
+      <c r="B58" s="209"/>
+      <c r="C58" s="214"/>
       <c r="D58" s="45" t="s">
         <v>3809</v>
       </c>
@@ -29843,11 +29832,11 @@
       <c r="H58" s="37">
         <v>1034.7368421052631</v>
       </c>
-      <c r="I58" s="232"/>
+      <c r="I58" s="217"/>
     </row>
     <row r="59" spans="2:10" ht="30" customHeight="1">
-      <c r="B59" s="227"/>
-      <c r="C59" s="230"/>
+      <c r="B59" s="209"/>
+      <c r="C59" s="215"/>
       <c r="D59" s="45" t="s">
         <v>3811</v>
       </c>
@@ -29863,11 +29852,11 @@
       <c r="H59" s="37">
         <v>1347.3684210526317</v>
       </c>
-      <c r="I59" s="233"/>
+      <c r="I59" s="218"/>
     </row>
     <row r="60" spans="2:10" ht="30" customHeight="1">
-      <c r="B60" s="227"/>
-      <c r="C60" s="228" t="s">
+      <c r="B60" s="209"/>
+      <c r="C60" s="213" t="s">
         <v>3813</v>
       </c>
       <c r="D60" s="45" t="s">
@@ -29885,13 +29874,13 @@
       <c r="H60" s="37">
         <v>1277.8947368421054</v>
       </c>
-      <c r="I60" s="231" t="s">
+      <c r="I60" s="216" t="s">
         <v>3816</v>
       </c>
     </row>
     <row r="61" spans="2:10" ht="30" customHeight="1">
-      <c r="B61" s="227"/>
-      <c r="C61" s="229"/>
+      <c r="B61" s="209"/>
+      <c r="C61" s="214"/>
       <c r="D61" s="45" t="s">
         <v>3817</v>
       </c>
@@ -29907,11 +29896,11 @@
       <c r="H61" s="37">
         <v>1660</v>
       </c>
-      <c r="I61" s="232"/>
+      <c r="I61" s="217"/>
     </row>
     <row r="62" spans="2:10" ht="30" customHeight="1">
-      <c r="B62" s="227"/>
-      <c r="C62" s="229"/>
+      <c r="B62" s="209"/>
+      <c r="C62" s="214"/>
       <c r="D62" s="45" t="s">
         <v>3819</v>
       </c>
@@ -29927,11 +29916,11 @@
       <c r="H62" s="37">
         <v>1912.6315789473686</v>
       </c>
-      <c r="I62" s="232"/>
+      <c r="I62" s="217"/>
     </row>
     <row r="63" spans="2:10" ht="30" customHeight="1">
-      <c r="B63" s="227"/>
-      <c r="C63" s="229"/>
+      <c r="B63" s="209"/>
+      <c r="C63" s="214"/>
       <c r="D63" s="45" t="s">
         <v>3821</v>
       </c>
@@ -29947,11 +29936,11 @@
       <c r="H63" s="37">
         <v>2486.3157894736842</v>
       </c>
-      <c r="I63" s="232"/>
+      <c r="I63" s="217"/>
     </row>
     <row r="64" spans="2:10" ht="30" customHeight="1">
-      <c r="B64" s="227"/>
-      <c r="C64" s="229"/>
+      <c r="B64" s="209"/>
+      <c r="C64" s="214"/>
       <c r="D64" s="45" t="s">
         <v>3823</v>
       </c>
@@ -29967,11 +29956,11 @@
       <c r="H64" s="37">
         <v>634.73684210526324</v>
       </c>
-      <c r="I64" s="232"/>
+      <c r="I64" s="217"/>
     </row>
     <row r="65" spans="2:9" ht="30" customHeight="1">
-      <c r="B65" s="227"/>
-      <c r="C65" s="230"/>
+      <c r="B65" s="209"/>
+      <c r="C65" s="215"/>
       <c r="D65" s="45" t="s">
         <v>3825</v>
       </c>
@@ -29987,13 +29976,13 @@
       <c r="H65" s="37">
         <v>826.31578947368428</v>
       </c>
-      <c r="I65" s="233"/>
+      <c r="I65" s="218"/>
     </row>
     <row r="66" spans="2:9" s="21" customFormat="1" ht="30" customHeight="1">
-      <c r="B66" s="219" t="s">
+      <c r="B66" s="203" t="s">
         <v>3827</v>
       </c>
-      <c r="C66" s="223" t="s">
+      <c r="C66" s="206" t="s">
         <v>3828</v>
       </c>
       <c r="D66" s="16" t="s">
@@ -30016,8 +30005,8 @@
       </c>
     </row>
     <row r="67" spans="2:9" s="21" customFormat="1" ht="30" customHeight="1">
-      <c r="B67" s="220"/>
-      <c r="C67" s="223"/>
+      <c r="B67" s="204"/>
+      <c r="C67" s="206"/>
       <c r="D67" s="16" t="s">
         <v>3833</v>
       </c>
@@ -30038,8 +30027,8 @@
       </c>
     </row>
     <row r="68" spans="2:9" s="21" customFormat="1" ht="30" customHeight="1">
-      <c r="B68" s="220"/>
-      <c r="C68" s="223" t="s">
+      <c r="B68" s="204"/>
+      <c r="C68" s="206" t="s">
         <v>3836</v>
       </c>
       <c r="D68" s="16" t="s">
@@ -30062,8 +30051,8 @@
       </c>
     </row>
     <row r="69" spans="2:9" s="21" customFormat="1" ht="30" customHeight="1">
-      <c r="B69" s="221"/>
-      <c r="C69" s="223"/>
+      <c r="B69" s="205"/>
+      <c r="C69" s="206"/>
       <c r="D69" s="16" t="s">
         <v>3841</v>
       </c>
@@ -30084,7 +30073,7 @@
       </c>
     </row>
     <row r="70" spans="2:9" s="21" customFormat="1" ht="30" customHeight="1">
-      <c r="B70" s="243" t="s">
+      <c r="B70" s="207" t="s">
         <v>3845</v>
       </c>
       <c r="C70" s="49" t="s">
@@ -30110,7 +30099,7 @@
       </c>
     </row>
     <row r="71" spans="2:9" s="21" customFormat="1" ht="30" customHeight="1">
-      <c r="B71" s="244"/>
+      <c r="B71" s="208"/>
       <c r="C71" s="49" t="s">
         <v>3850</v>
       </c>
@@ -30134,7 +30123,7 @@
       </c>
     </row>
     <row r="72" spans="2:9" ht="30" customHeight="1">
-      <c r="B72" s="227" t="s">
+      <c r="B72" s="209" t="s">
         <v>3854</v>
       </c>
       <c r="C72" s="49" t="s">
@@ -30160,11 +30149,11 @@
       </c>
     </row>
     <row r="73" spans="2:9" ht="30" customHeight="1">
-      <c r="B73" s="227"/>
-      <c r="C73" s="219" t="s">
+      <c r="B73" s="209"/>
+      <c r="C73" s="203" t="s">
         <v>3860</v>
       </c>
-      <c r="D73" s="237" t="s">
+      <c r="D73" s="197" t="s">
         <v>3861</v>
       </c>
       <c r="E73" s="16" t="s">
@@ -30179,14 +30168,14 @@
       <c r="H73" s="18">
         <v>35027.368421052633</v>
       </c>
-      <c r="I73" s="240" t="s">
+      <c r="I73" s="200" t="s">
         <v>3864</v>
       </c>
     </row>
     <row r="74" spans="2:9" ht="30" customHeight="1">
-      <c r="B74" s="227"/>
-      <c r="C74" s="220"/>
-      <c r="D74" s="238"/>
+      <c r="B74" s="209"/>
+      <c r="C74" s="204"/>
+      <c r="D74" s="198"/>
       <c r="E74" s="16" t="s">
         <v>3865</v>
       </c>
@@ -30199,12 +30188,12 @@
       <c r="H74" s="18">
         <v>28905.263157894737</v>
       </c>
-      <c r="I74" s="241"/>
+      <c r="I74" s="201"/>
     </row>
     <row r="75" spans="2:9" ht="30" customHeight="1">
-      <c r="B75" s="227"/>
-      <c r="C75" s="220"/>
-      <c r="D75" s="238"/>
+      <c r="B75" s="209"/>
+      <c r="C75" s="204"/>
+      <c r="D75" s="198"/>
       <c r="E75" s="16" t="s">
         <v>3867</v>
       </c>
@@ -30217,12 +30206,12 @@
       <c r="H75" s="18">
         <v>274857.89473684214</v>
       </c>
-      <c r="I75" s="241"/>
+      <c r="I75" s="201"/>
     </row>
     <row r="76" spans="2:9" ht="30" customHeight="1">
-      <c r="B76" s="227"/>
-      <c r="C76" s="221"/>
-      <c r="D76" s="239"/>
+      <c r="B76" s="209"/>
+      <c r="C76" s="205"/>
+      <c r="D76" s="199"/>
       <c r="E76" s="16" t="s">
         <v>3869</v>
       </c>
@@ -30235,18 +30224,24 @@
       <c r="H76" s="18">
         <v>100896.84210526316</v>
       </c>
-      <c r="I76" s="242"/>
+      <c r="I76" s="202"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="D73:D76"/>
-    <mergeCell ref="I73:I76"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="B72:B76"/>
-    <mergeCell ref="C73:C76"/>
+    <mergeCell ref="B9:B32"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="C15:C20"/>
+    <mergeCell ref="I15:I20"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="C24:C32"/>
+    <mergeCell ref="I24:I29"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="I7:I8"/>
     <mergeCell ref="J30:J32"/>
     <mergeCell ref="C45:C47"/>
     <mergeCell ref="B48:B65"/>
@@ -30263,20 +30258,14 @@
     <mergeCell ref="I33:I41"/>
     <mergeCell ref="C42:C44"/>
     <mergeCell ref="I42:I47"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="B9:B32"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="C15:C20"/>
-    <mergeCell ref="I15:I20"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="C24:C32"/>
-    <mergeCell ref="I24:I29"/>
+    <mergeCell ref="D73:D76"/>
+    <mergeCell ref="I73:I76"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="B72:B76"/>
+    <mergeCell ref="C73:C76"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -64984,60 +64973,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B596E427-2396-9449-B466-26D6428D21A9}">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" activeCellId="1" sqref="C1 J15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>4318</v>
-      </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="96" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:P91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.59765625" defaultRowHeight="13"/>
@@ -65078,12 +65018,12 @@
       <c r="J2" s="183" t="s">
         <v>4231</v>
       </c>
-      <c r="K2" s="247" t="s">
+      <c r="K2" s="251" t="s">
         <v>4232</v>
       </c>
-      <c r="L2" s="247"/>
-      <c r="M2" s="247"/>
-      <c r="N2" s="247"/>
+      <c r="L2" s="251"/>
+      <c r="M2" s="251"/>
+      <c r="N2" s="251"/>
     </row>
     <row r="3" spans="1:14" ht="35.5" customHeight="1" thickBot="1">
       <c r="B3" s="184" t="s">
@@ -65107,15 +65047,15 @@
       <c r="H3" s="185" t="s">
         <v>4234</v>
       </c>
-      <c r="J3" s="245" t="s">
+      <c r="J3" s="252" t="s">
         <v>4236</v>
       </c>
-      <c r="K3" s="246" t="s">
+      <c r="K3" s="245" t="s">
         <v>4237</v>
       </c>
-      <c r="L3" s="246"/>
-      <c r="M3" s="246"/>
-      <c r="N3" s="246"/>
+      <c r="L3" s="245"/>
+      <c r="M3" s="245"/>
+      <c r="N3" s="245"/>
     </row>
     <row r="4" spans="1:14" ht="35.5" customHeight="1" thickBot="1">
       <c r="B4" s="184" t="s">
@@ -65139,13 +65079,13 @@
       <c r="H4" s="185" t="s">
         <v>4240</v>
       </c>
-      <c r="J4" s="245"/>
-      <c r="K4" s="246" t="s">
+      <c r="J4" s="252"/>
+      <c r="K4" s="245" t="s">
         <v>4241</v>
       </c>
-      <c r="L4" s="246"/>
-      <c r="M4" s="246"/>
-      <c r="N4" s="246"/>
+      <c r="L4" s="245"/>
+      <c r="M4" s="245"/>
+      <c r="N4" s="245"/>
     </row>
     <row r="5" spans="1:14" ht="35.5" customHeight="1" thickBot="1">
       <c r="B5" s="184" t="s">
@@ -65169,13 +65109,13 @@
       <c r="H5" s="185" t="s">
         <v>4234</v>
       </c>
-      <c r="J5" s="245"/>
-      <c r="K5" s="246" t="s">
+      <c r="J5" s="252"/>
+      <c r="K5" s="245" t="s">
         <v>4243</v>
       </c>
-      <c r="L5" s="246"/>
-      <c r="M5" s="246"/>
-      <c r="N5" s="246"/>
+      <c r="L5" s="245"/>
+      <c r="M5" s="245"/>
+      <c r="N5" s="245"/>
     </row>
     <row r="6" spans="1:14" ht="35.5" customHeight="1" thickBot="1">
       <c r="B6" s="184" t="s">
@@ -65199,15 +65139,15 @@
       <c r="H6" s="185" t="s">
         <v>4234</v>
       </c>
-      <c r="J6" s="245" t="s">
+      <c r="J6" s="252" t="s">
         <v>4245</v>
       </c>
-      <c r="K6" s="246" t="s">
+      <c r="K6" s="245" t="s">
         <v>4246</v>
       </c>
-      <c r="L6" s="246"/>
-      <c r="M6" s="246"/>
-      <c r="N6" s="246"/>
+      <c r="L6" s="245"/>
+      <c r="M6" s="245"/>
+      <c r="N6" s="245"/>
     </row>
     <row r="7" spans="1:14" ht="35.5" customHeight="1" thickBot="1">
       <c r="B7" s="186" t="s">
@@ -65231,13 +65171,13 @@
       <c r="H7" s="185" t="s">
         <v>4249</v>
       </c>
-      <c r="J7" s="245"/>
-      <c r="K7" s="246" t="s">
+      <c r="J7" s="252"/>
+      <c r="K7" s="245" t="s">
         <v>4250</v>
       </c>
-      <c r="L7" s="246"/>
-      <c r="M7" s="246"/>
-      <c r="N7" s="246"/>
+      <c r="L7" s="245"/>
+      <c r="M7" s="245"/>
+      <c r="N7" s="245"/>
     </row>
     <row r="8" spans="1:14" ht="35.5" customHeight="1" thickBot="1">
       <c r="B8" s="184" t="s">
@@ -65261,13 +65201,13 @@
       <c r="H8" s="185" t="s">
         <v>4234</v>
       </c>
-      <c r="J8" s="245"/>
-      <c r="K8" s="246" t="s">
+      <c r="J8" s="252"/>
+      <c r="K8" s="245" t="s">
         <v>4252</v>
       </c>
-      <c r="L8" s="246"/>
-      <c r="M8" s="246"/>
-      <c r="N8" s="246"/>
+      <c r="L8" s="245"/>
+      <c r="M8" s="245"/>
+      <c r="N8" s="245"/>
     </row>
     <row r="9" spans="1:14" ht="35.5" customHeight="1" thickBot="1">
       <c r="B9" s="184" t="s">
@@ -65291,13 +65231,13 @@
       <c r="H9" s="185" t="s">
         <v>4234</v>
       </c>
-      <c r="J9" s="245"/>
-      <c r="K9" s="246" t="s">
+      <c r="J9" s="252"/>
+      <c r="K9" s="245" t="s">
         <v>4254</v>
       </c>
-      <c r="L9" s="246"/>
-      <c r="M9" s="246"/>
-      <c r="N9" s="246"/>
+      <c r="L9" s="245"/>
+      <c r="M9" s="245"/>
+      <c r="N9" s="245"/>
     </row>
     <row r="10" spans="1:14" ht="35.5" customHeight="1" thickBot="1">
       <c r="B10" s="184" t="s">
@@ -65347,12 +65287,12 @@
       <c r="J11" s="183" t="s">
         <v>4259</v>
       </c>
-      <c r="K11" s="247" t="s">
+      <c r="K11" s="251" t="s">
         <v>4232</v>
       </c>
-      <c r="L11" s="247"/>
-      <c r="M11" s="247"/>
-      <c r="N11" s="247"/>
+      <c r="L11" s="251"/>
+      <c r="M11" s="251"/>
+      <c r="N11" s="251"/>
     </row>
     <row r="12" spans="1:14" ht="35.5" customHeight="1" thickBot="1">
       <c r="B12" s="184" t="s">
@@ -65376,15 +65316,15 @@
       <c r="H12" s="185" t="s">
         <v>4234</v>
       </c>
-      <c r="J12" s="248" t="s">
+      <c r="J12" s="247" t="s">
         <v>4260</v>
       </c>
-      <c r="K12" s="246" t="s">
+      <c r="K12" s="245" t="s">
         <v>4261</v>
       </c>
-      <c r="L12" s="246"/>
-      <c r="M12" s="246"/>
-      <c r="N12" s="246"/>
+      <c r="L12" s="245"/>
+      <c r="M12" s="245"/>
+      <c r="N12" s="245"/>
     </row>
     <row r="13" spans="1:14" ht="35.5" customHeight="1" thickBot="1">
       <c r="B13" s="184" t="s">
@@ -65408,245 +65348,245 @@
       <c r="H13" s="185" t="s">
         <v>4234</v>
       </c>
-      <c r="J13" s="248"/>
-      <c r="K13" s="246" t="s">
+      <c r="J13" s="247"/>
+      <c r="K13" s="245" t="s">
         <v>4265</v>
       </c>
-      <c r="L13" s="246"/>
-      <c r="M13" s="246"/>
-      <c r="N13" s="246"/>
+      <c r="L13" s="245"/>
+      <c r="M13" s="245"/>
+      <c r="N13" s="245"/>
     </row>
     <row r="14" spans="1:14" ht="14.5" customHeight="1" thickBot="1">
       <c r="A14" s="188" t="s">
         <v>4266</v>
       </c>
-      <c r="J14" s="248"/>
-      <c r="K14" s="246" t="s">
+      <c r="J14" s="247"/>
+      <c r="K14" s="245" t="s">
         <v>4267</v>
       </c>
-      <c r="L14" s="246"/>
-      <c r="M14" s="246"/>
-      <c r="N14" s="246"/>
+      <c r="L14" s="245"/>
+      <c r="M14" s="245"/>
+      <c r="N14" s="245"/>
     </row>
     <row r="15" spans="1:14" ht="14" thickBot="1">
       <c r="A15" s="181" t="s">
         <v>4268</v>
       </c>
-      <c r="J15" s="248"/>
-      <c r="K15" s="246" t="s">
+      <c r="J15" s="247"/>
+      <c r="K15" s="245" t="s">
         <v>4269</v>
       </c>
-      <c r="L15" s="246"/>
-      <c r="M15" s="246"/>
-      <c r="N15" s="246"/>
+      <c r="L15" s="245"/>
+      <c r="M15" s="245"/>
+      <c r="N15" s="245"/>
     </row>
     <row r="16" spans="1:14" ht="14.5" customHeight="1" thickBot="1">
       <c r="A16" s="181" t="s">
         <v>4270</v>
       </c>
-      <c r="J16" s="248"/>
-      <c r="K16" s="246" t="s">
+      <c r="J16" s="247"/>
+      <c r="K16" s="245" t="s">
         <v>4271</v>
       </c>
-      <c r="L16" s="246"/>
-      <c r="M16" s="246"/>
-      <c r="N16" s="246"/>
+      <c r="L16" s="245"/>
+      <c r="M16" s="245"/>
+      <c r="N16" s="245"/>
     </row>
     <row r="17" spans="1:16" ht="14" thickBot="1">
       <c r="A17" s="181" t="s">
         <v>4272</v>
       </c>
-      <c r="J17" s="248"/>
-      <c r="K17" s="246" t="s">
+      <c r="J17" s="247"/>
+      <c r="K17" s="245" t="s">
         <v>4273</v>
       </c>
-      <c r="L17" s="246"/>
-      <c r="M17" s="246"/>
-      <c r="N17" s="246"/>
+      <c r="L17" s="245"/>
+      <c r="M17" s="245"/>
+      <c r="N17" s="245"/>
     </row>
     <row r="18" spans="1:16" ht="14.5" customHeight="1" thickBot="1">
       <c r="A18" s="181" t="s">
         <v>4274</v>
       </c>
-      <c r="J18" s="248" t="s">
+      <c r="J18" s="247" t="s">
         <v>4275</v>
       </c>
-      <c r="K18" s="246" t="s">
+      <c r="K18" s="245" t="s">
         <v>4276</v>
       </c>
-      <c r="L18" s="246"/>
-      <c r="M18" s="246"/>
-      <c r="N18" s="246"/>
+      <c r="L18" s="245"/>
+      <c r="M18" s="245"/>
+      <c r="N18" s="245"/>
     </row>
     <row r="19" spans="1:16" ht="14" thickBot="1">
       <c r="A19" s="181" t="s">
         <v>4277</v>
       </c>
-      <c r="J19" s="248"/>
-      <c r="K19" s="246" t="s">
+      <c r="J19" s="247"/>
+      <c r="K19" s="245" t="s">
         <v>4278</v>
       </c>
-      <c r="L19" s="246"/>
-      <c r="M19" s="246"/>
-      <c r="N19" s="246"/>
+      <c r="L19" s="245"/>
+      <c r="M19" s="245"/>
+      <c r="N19" s="245"/>
     </row>
     <row r="20" spans="1:16" ht="14.5" customHeight="1" thickBot="1">
       <c r="A20" s="181" t="s">
         <v>4279</v>
       </c>
-      <c r="J20" s="248" t="s">
+      <c r="J20" s="247" t="s">
         <v>4244</v>
       </c>
-      <c r="K20" s="246" t="s">
+      <c r="K20" s="245" t="s">
         <v>4280</v>
       </c>
-      <c r="L20" s="246"/>
-      <c r="M20" s="246"/>
-      <c r="N20" s="246"/>
+      <c r="L20" s="245"/>
+      <c r="M20" s="245"/>
+      <c r="N20" s="245"/>
     </row>
     <row r="21" spans="1:16" ht="14" thickBot="1">
       <c r="A21" s="181" t="s">
         <v>4281</v>
       </c>
-      <c r="J21" s="248"/>
-      <c r="K21" s="246" t="s">
+      <c r="J21" s="247"/>
+      <c r="K21" s="245" t="s">
         <v>4282</v>
       </c>
-      <c r="L21" s="246"/>
-      <c r="M21" s="246"/>
-      <c r="N21" s="246"/>
+      <c r="L21" s="245"/>
+      <c r="M21" s="245"/>
+      <c r="N21" s="245"/>
     </row>
     <row r="22" spans="1:16" ht="14.5" customHeight="1" thickBot="1">
       <c r="A22" s="181" t="s">
         <v>4283</v>
       </c>
-      <c r="J22" s="248" t="s">
+      <c r="J22" s="247" t="s">
         <v>4284</v>
       </c>
-      <c r="K22" s="246" t="s">
+      <c r="K22" s="245" t="s">
         <v>4285</v>
       </c>
-      <c r="L22" s="246"/>
-      <c r="M22" s="246"/>
-      <c r="N22" s="246"/>
+      <c r="L22" s="245"/>
+      <c r="M22" s="245"/>
+      <c r="N22" s="245"/>
     </row>
     <row r="23" spans="1:16" ht="14.5" customHeight="1" thickBot="1">
       <c r="A23" s="181" t="s">
         <v>4286</v>
       </c>
-      <c r="J23" s="248"/>
-      <c r="K23" s="246" t="s">
+      <c r="J23" s="247"/>
+      <c r="K23" s="245" t="s">
         <v>4287</v>
       </c>
-      <c r="L23" s="246"/>
-      <c r="M23" s="246"/>
-      <c r="N23" s="246"/>
+      <c r="L23" s="245"/>
+      <c r="M23" s="245"/>
+      <c r="N23" s="245"/>
     </row>
     <row r="24" spans="1:16" ht="14" thickBot="1">
       <c r="A24" s="181" t="s">
         <v>4288</v>
       </c>
-      <c r="J24" s="248" t="s">
+      <c r="J24" s="247" t="s">
         <v>4253</v>
       </c>
-      <c r="K24" s="246" t="s">
+      <c r="K24" s="245" t="s">
         <v>4289</v>
       </c>
-      <c r="L24" s="246"/>
-      <c r="M24" s="246"/>
-      <c r="N24" s="246"/>
+      <c r="L24" s="245"/>
+      <c r="M24" s="245"/>
+      <c r="N24" s="245"/>
     </row>
     <row r="25" spans="1:16" ht="14.5" customHeight="1" thickBot="1">
       <c r="A25" s="181" t="s">
         <v>4290</v>
       </c>
-      <c r="J25" s="248"/>
-      <c r="K25" s="246" t="s">
+      <c r="J25" s="247"/>
+      <c r="K25" s="245" t="s">
         <v>4241</v>
       </c>
-      <c r="L25" s="246"/>
-      <c r="M25" s="246"/>
-      <c r="N25" s="246"/>
+      <c r="L25" s="245"/>
+      <c r="M25" s="245"/>
+      <c r="N25" s="245"/>
     </row>
     <row r="26" spans="1:16" ht="14.5" customHeight="1" thickBot="1">
       <c r="A26" s="181" t="s">
         <v>4291</v>
       </c>
-      <c r="J26" s="248"/>
-      <c r="K26" s="246" t="s">
+      <c r="J26" s="247"/>
+      <c r="K26" s="245" t="s">
         <v>4243</v>
       </c>
-      <c r="L26" s="246"/>
-      <c r="M26" s="246"/>
-      <c r="N26" s="246"/>
+      <c r="L26" s="245"/>
+      <c r="M26" s="245"/>
+      <c r="N26" s="245"/>
     </row>
     <row r="27" spans="1:16" ht="17" thickBot="1">
       <c r="J27" s="184" t="s">
         <v>4292</v>
       </c>
-      <c r="K27" s="246" t="s">
+      <c r="K27" s="245" t="s">
         <v>4293</v>
       </c>
-      <c r="L27" s="246"/>
-      <c r="M27" s="246"/>
-      <c r="N27" s="246"/>
+      <c r="L27" s="245"/>
+      <c r="M27" s="245"/>
+      <c r="N27" s="245"/>
       <c r="O27" s="189" t="s">
         <v>4294</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="13.25" customHeight="1" thickBot="1">
-      <c r="J28" s="249" t="s">
+      <c r="J28" s="248" t="s">
         <v>4293</v>
       </c>
-      <c r="K28" s="246" t="s">
+      <c r="K28" s="245" t="s">
         <v>4295</v>
       </c>
-      <c r="L28" s="246"/>
-      <c r="M28" s="246"/>
-      <c r="N28" s="246"/>
+      <c r="L28" s="245"/>
+      <c r="M28" s="245"/>
+      <c r="N28" s="245"/>
       <c r="O28" s="190" t="s">
         <v>4296</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="13.25" customHeight="1" thickBot="1">
-      <c r="J29" s="250"/>
-      <c r="K29" s="246" t="s">
+      <c r="J29" s="249"/>
+      <c r="K29" s="245" t="s">
         <v>4297</v>
       </c>
-      <c r="L29" s="246"/>
-      <c r="M29" s="246"/>
-      <c r="N29" s="246"/>
+      <c r="L29" s="245"/>
+      <c r="M29" s="245"/>
+      <c r="N29" s="245"/>
     </row>
     <row r="30" spans="1:16" ht="14" thickBot="1">
-      <c r="J30" s="251"/>
-      <c r="K30" s="246" t="s">
+      <c r="J30" s="250"/>
+      <c r="K30" s="245" t="s">
         <v>4298</v>
       </c>
-      <c r="L30" s="246"/>
-      <c r="M30" s="246"/>
-      <c r="N30" s="246"/>
+      <c r="L30" s="245"/>
+      <c r="M30" s="245"/>
+      <c r="N30" s="245"/>
     </row>
     <row r="31" spans="1:16" ht="13.25" customHeight="1" thickBot="1">
       <c r="J31" s="184" t="s">
         <v>4299</v>
       </c>
-      <c r="K31" s="246" t="s">
+      <c r="K31" s="245" t="s">
         <v>4300</v>
       </c>
-      <c r="L31" s="246"/>
-      <c r="M31" s="246"/>
-      <c r="N31" s="246"/>
+      <c r="L31" s="245"/>
+      <c r="M31" s="245"/>
+      <c r="N31" s="245"/>
     </row>
     <row r="32" spans="1:16" ht="13.25" customHeight="1" thickBot="1">
       <c r="J32" s="184" t="s">
         <v>4301</v>
       </c>
-      <c r="K32" s="246" t="s">
+      <c r="K32" s="245" t="s">
         <v>4302</v>
       </c>
-      <c r="L32" s="246"/>
-      <c r="M32" s="246"/>
-      <c r="N32" s="246"/>
+      <c r="L32" s="245"/>
+      <c r="M32" s="245"/>
+      <c r="N32" s="245"/>
       <c r="P32" s="191"/>
     </row>
     <row r="33" spans="1:16" ht="17" thickBot="1">
@@ -65654,12 +65594,12 @@
       <c r="J33" s="184" t="s">
         <v>4303</v>
       </c>
-      <c r="K33" s="246" t="s">
+      <c r="K33" s="245" t="s">
         <v>4304</v>
       </c>
-      <c r="L33" s="246"/>
-      <c r="M33" s="246"/>
-      <c r="N33" s="246"/>
+      <c r="L33" s="245"/>
+      <c r="M33" s="245"/>
+      <c r="N33" s="245"/>
       <c r="O33" s="189" t="s">
         <v>4305</v>
       </c>
@@ -65671,36 +65611,36 @@
       <c r="J34" s="184" t="s">
         <v>4307</v>
       </c>
-      <c r="K34" s="246" t="s">
+      <c r="K34" s="245" t="s">
         <v>4308</v>
       </c>
-      <c r="L34" s="246"/>
-      <c r="M34" s="246"/>
-      <c r="N34" s="246"/>
+      <c r="L34" s="245"/>
+      <c r="M34" s="245"/>
+      <c r="N34" s="245"/>
       <c r="O34" s="190"/>
     </row>
     <row r="35" spans="1:16" ht="17" thickBot="1">
-      <c r="J35" s="252" t="s">
+      <c r="J35" s="246" t="s">
         <v>4309</v>
       </c>
-      <c r="K35" s="246" t="s">
+      <c r="K35" s="245" t="s">
         <v>4310</v>
       </c>
-      <c r="L35" s="246"/>
-      <c r="M35" s="246"/>
-      <c r="N35" s="246"/>
+      <c r="L35" s="245"/>
+      <c r="M35" s="245"/>
+      <c r="N35" s="245"/>
       <c r="O35" s="189" t="s">
         <v>4311</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="13.25" customHeight="1" thickBot="1">
-      <c r="J36" s="248"/>
-      <c r="K36" s="246" t="s">
+      <c r="J36" s="247"/>
+      <c r="K36" s="245" t="s">
         <v>4312</v>
       </c>
-      <c r="L36" s="246"/>
-      <c r="M36" s="246"/>
-      <c r="N36" s="246"/>
+      <c r="L36" s="245"/>
+      <c r="M36" s="245"/>
+      <c r="N36" s="245"/>
       <c r="O36" s="190" t="s">
         <v>4313</v>
       </c>
@@ -65709,12 +65649,12 @@
       <c r="J37" s="184" t="s">
         <v>4314</v>
       </c>
-      <c r="K37" s="246" t="s">
+      <c r="K37" s="245" t="s">
         <v>4315</v>
       </c>
-      <c r="L37" s="246"/>
-      <c r="M37" s="246"/>
-      <c r="N37" s="246"/>
+      <c r="L37" s="245"/>
+      <c r="M37" s="245"/>
+      <c r="N37" s="245"/>
     </row>
     <row r="38" spans="1:16" ht="13.25" customHeight="1">
       <c r="J38" s="193"/>
@@ -65806,13 +65746,30 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="K37:N37"/>
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="J6:J9"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="J12:J17"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="K21:N21"/>
     <mergeCell ref="K31:N31"/>
     <mergeCell ref="J22:J23"/>
     <mergeCell ref="K22:N22"/>
@@ -65826,30 +65783,13 @@
     <mergeCell ref="K28:N28"/>
     <mergeCell ref="K29:N29"/>
     <mergeCell ref="K30:N30"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="J12:J17"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="J3:J5"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="J6:J9"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="K37:N37"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="K36:N36"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
